--- a/src/assets/files/客资导入模版.xlsx
+++ b/src/assets/files/客资导入模版.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelly/Desktop/crm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF402E9-782C-F340-AE00-8A30A6A1F161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179E0638-5600-A044-923B-194748E3D8E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -78,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">15800698198	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">02164647155	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主联系人（必填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,215 +177,6 @@
         <charset val="134"/>
       </rPr>
       <t>金山区市场监管局</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海同济科技园孵化器有限公司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浦东新区市场监管局</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海恺润思投资管理有限公司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夏天勃</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法人张磊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注册时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2018-01-01</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蒋仲德</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海海湾科技园发展有限公司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈兰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海耀华教育管理有限公司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叶允鸿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海聚阳投资管理有限公司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钱俊杰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海禧溢投资管理有限公司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海融财商务咨询有限公司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>沈步英</t>
     </r>
   </si>
   <si>
@@ -493,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海敏众投资管理有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>满记甜品（北京）有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,6 +395,14 @@
       </rPr>
       <t>联系电话可以重复</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -812,6 +599,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1152,10 +942,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1"/>
@@ -1168,22 +958,23 @@
     <col min="6" max="6" width="25.6640625" style="13" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="52.6640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="4"/>
+    <col min="9" max="9" width="25.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="52.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1192,30 +983,33 @@
         <v>1</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26" customHeight="1">
+    <row r="2" spans="1:10" ht="26" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="13">
         <v>63561133828</v>
@@ -1224,27 +1018,30 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="26" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="26" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="13">
         <v>64647155</v>
@@ -1253,168 +1050,14 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="26" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="13">
-        <v>7788999000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="26" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="26" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="26" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="26" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="26" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="26" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="26" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="13">
-        <v>13801902604</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="26" customHeight="1">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="26" customHeight="1">
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1430,7 +1073,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B3" sqref="B3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="26" customHeight="1"/>
@@ -1443,20 +1086,20 @@
   <sheetData>
     <row r="1" spans="1:5" ht="37" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="26" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
@@ -1466,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
@@ -1479,10 +1122,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1492,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1505,10 +1148,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
@@ -1518,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
@@ -1531,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>

--- a/src/assets/files/客资导入模版.xlsx
+++ b/src/assets/files/客资导入模版.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelly/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djack/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179E0638-5600-A044-923B-194748E3D8E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="客户导入模版说明" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -223,7 +230,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -242,7 +249,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -269,10 +276,6 @@
   </si>
   <si>
     <t>城市(必填项)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,8 +345,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">;         </t>
     </r>
@@ -404,27 +406,30 @@
   <si>
     <t>2019-01-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -445,7 +450,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -532,7 +537,7 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -544,7 +549,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -565,13 +570,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -598,7 +603,7 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,7 +611,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -631,7 +636,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -938,17 +943,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872D57A7-09DC-9B44-A20C-68B833D2469F}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="4" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" style="4" customWidth="1"/>
@@ -963,7 +968,7 @@
     <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -989,18 +994,18 @@
         <v>2</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26" customHeight="1">
+    <row r="2" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1021,15 +1026,15 @@
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="26" customHeight="1">
+    <row r="3" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -1052,12 +1057,6 @@
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="26" customHeight="1">
-      <c r="H4" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="26" customHeight="1">
-      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,8 +1065,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2FB86A-4E76-7B4A-9A34-6AED94773E9B}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
@@ -1076,7 +1075,7 @@
       <selection activeCell="B3" sqref="B3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="26" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" style="7"/>
     <col min="2" max="2" width="51.33203125" style="2" customWidth="1"/>
@@ -1084,14 +1083,14 @@
     <col min="4" max="16384" width="33.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37" customHeight="1">
+    <row r="1" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:5" ht="26" customHeight="1">
+    <row r="2" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1104,33 +1103,33 @@
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="26" customHeight="1">
+    <row r="3" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="26" customHeight="1">
+    <row r="4" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="26" customHeight="1">
+    <row r="5" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1143,7 +1142,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="26" customHeight="1">
+    <row r="6" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1151,12 +1150,12 @@
         <v>22</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="25" customHeight="1">
+    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1169,39 +1168,39 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="45" customHeight="1">
+    <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="26" customHeight="1">
+    <row r="9" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="26" customHeight="1">
+    <row r="10" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="26" customHeight="1">
+    <row r="11" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="26" customHeight="1">
+    <row r="12" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="26" customHeight="1">
+    <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
